--- a/tablaDeDatos.xlsx
+++ b/tablaDeDatos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79887779-3D2C-4438-9D50-04613E1A0154}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0E16C1-07AB-4EAF-9E2C-C6F17FA74ADA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="40">
   <si>
     <t>Ricardo Paulo Cesar</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>CHICO CASIO</t>
+  </si>
+  <si>
+    <t>random</t>
   </si>
 </sst>
 </file>
@@ -454,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,7 +469,7 @@
     <col min="2" max="2" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -479,6 +482,9 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
       <c r="F1">
         <v>2016</v>
       </c>
@@ -488,8 +494,11 @@
       <c r="H1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -502,6 +511,9 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
       <c r="F2">
         <v>2016</v>
       </c>
@@ -511,8 +523,11 @@
       <c r="H2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -525,6 +540,9 @@
       <c r="D3" t="s">
         <v>2</v>
       </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
       <c r="F3">
         <v>2016</v>
       </c>
@@ -534,8 +552,11 @@
       <c r="H3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -548,6 +569,9 @@
       <c r="D4" t="s">
         <v>2</v>
       </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
       <c r="F4">
         <v>2016</v>
       </c>
@@ -557,8 +581,11 @@
       <c r="H4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -571,6 +598,9 @@
       <c r="D5" t="s">
         <v>2</v>
       </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
       <c r="F5">
         <v>2016</v>
       </c>
@@ -580,8 +610,11 @@
       <c r="H5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -594,6 +627,9 @@
       <c r="D6" t="s">
         <v>2</v>
       </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
       <c r="F6">
         <v>2016</v>
       </c>
@@ -603,8 +639,11 @@
       <c r="H6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -617,6 +656,9 @@
       <c r="D7" t="s">
         <v>2</v>
       </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
       <c r="F7">
         <v>2016</v>
       </c>
@@ -626,8 +668,11 @@
       <c r="H7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -640,6 +685,9 @@
       <c r="D8" t="s">
         <v>2</v>
       </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
       <c r="F8">
         <v>2016</v>
       </c>
@@ -649,8 +697,11 @@
       <c r="H8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -663,6 +714,9 @@
       <c r="D9" t="s">
         <v>2</v>
       </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
       <c r="F9">
         <v>2016</v>
       </c>
@@ -672,8 +726,11 @@
       <c r="H9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -686,6 +743,9 @@
       <c r="D10" t="s">
         <v>2</v>
       </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
       <c r="F10">
         <v>2016</v>
       </c>
@@ -695,8 +755,11 @@
       <c r="H10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -709,6 +772,9 @@
       <c r="D11" t="s">
         <v>2</v>
       </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
       <c r="F11">
         <v>2016</v>
       </c>
@@ -718,8 +784,11 @@
       <c r="H11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -732,6 +801,9 @@
       <c r="D12" t="s">
         <v>2</v>
       </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
       <c r="F12">
         <v>2016</v>
       </c>
@@ -741,8 +813,11 @@
       <c r="H12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -755,6 +830,9 @@
       <c r="D13" t="s">
         <v>2</v>
       </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
       <c r="F13">
         <v>2016</v>
       </c>
@@ -764,8 +842,11 @@
       <c r="H13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -778,6 +859,9 @@
       <c r="D14" t="s">
         <v>2</v>
       </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
       <c r="F14">
         <v>2016</v>
       </c>
@@ -787,8 +871,11 @@
       <c r="H14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -801,6 +888,9 @@
       <c r="D15" t="s">
         <v>2</v>
       </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
       <c r="F15">
         <v>2016</v>
       </c>
@@ -810,8 +900,11 @@
       <c r="H15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -824,6 +917,9 @@
       <c r="D16" t="s">
         <v>2</v>
       </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
       <c r="F16">
         <v>2016</v>
       </c>
@@ -833,8 +929,11 @@
       <c r="H16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -847,6 +946,9 @@
       <c r="D17" t="s">
         <v>2</v>
       </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
       <c r="F17">
         <v>2016</v>
       </c>
@@ -856,8 +958,11 @@
       <c r="H17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -870,6 +975,9 @@
       <c r="D18" t="s">
         <v>2</v>
       </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
       <c r="F18">
         <v>2016</v>
       </c>
@@ -878,6 +986,9 @@
       </c>
       <c r="H18" t="s">
         <v>4</v>
+      </c>
+      <c r="I18">
+        <v>2015</v>
       </c>
     </row>
   </sheetData>
